--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-15T08:16:09+00:00</t>
+    <t>2022-01-15T22:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-15T22:52:46+00:00</t>
+    <t>2022-02-10T17:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T17:38:26+00:00</t>
+    <t>2022-02-15T06:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T06:03:27+00:00</t>
+    <t>2022-02-15T07:38:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T07:38:20+00:00</t>
+    <t>2022-02-15T09:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T09:19:51+00:00</t>
+    <t>2022-02-15T11:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T11:53:49+00:00</t>
+    <t>2022-02-15T12:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-NoDomainVSObservationBodyMassIndexConfoundingFactorExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-15T12:05:03+00:00</t>
+    <t>2022-02-15T17:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
